--- a/biology/Botanique/Liste_des_essences_forestières_européennes/Liste_des_essences_forestières_européennes.xlsx
+++ b/biology/Botanique/Liste_des_essences_forestières_européennes/Liste_des_essences_forestières_européennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
+          <t>Liste_des_essences_forestières_européennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
+          <t>Liste_des_essences_forestières_européennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Feuillus
-Alisier blanc, Sorbus aria Crantz, Rosacées
+          <t>Feuillus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alisier blanc, Sorbus aria Crantz, Rosacées
 Alisier torminal, Sorbus torminalis Crantz, Rosacées
 Aulne blanc, Alnus incana Desf., Bétulacées
 Aulne de Corse, Alnus cordata (L.) Moench, Bétulacées
@@ -568,9 +585,43 @@
 Tilleul à grandes feuilles, Tilia platyphyllos Scop., Malvacées (Tiliacées)
 Tilleul à petites feuilles, Tilia cordata Mill., Malvacées (Tiliacées)
 Tilleul argenté, Tilia tomentosa Moench, Malvacées (Tiliacées)
-Tilleul du Caucase, Tilia dasystyla Maxim., Malvacées (Tiliacées)
-Résineux
-Cyprès méditerranéen, Cupressus sempervirens L., Cupressacées
+Tilleul du Caucase, Tilia dasystyla Maxim., Malvacées (Tiliacées)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_essences_forestières_européennes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Essences indigènes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résineux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyprès méditerranéen, Cupressus sempervirens L., Cupressacées
 Épicéa commun, Picea abies (L.) H. Karst., Pinacées
 Épicéa de Serbie, Picea omorika (Pančić) Purk.,Pinacées
 If commun, Taxus baccata, Taxacées
@@ -595,34 +646,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_essences_forestières_européennes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Principales essences introduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Résineux
-Calocèdre d'Amérique, Calocedrus decurrens (Torr.) Florin, Cupressacées
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Résineux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Calocèdre d'Amérique, Calocedrus decurrens (Torr.) Florin, Cupressacées
 Cèdre de l'Atlas, Cedrus atlantica (Endl.) G. Manetti ex Carrière, Pinacées
 Cyprès de Lawson, Chamaecyparis lawsoniana (A. Murray) Parl., Cupressacées
 Douglas vert, Pseudotsuga menziesii (Mirb.) Franco var. menziesii, Pinacées
@@ -637,9 +693,43 @@
 Séquoia à feuilles d'if, Sequoia sempervirens, Cupressacées
 Séquoia géant, Sequoiadendron giganteum, Cupressacées
 Thuya géant, Thuja plicata Don., Cupressacées
-Pruche de l'ouest, Tsuga heterophylla Sarg., Pinacées
-Feuillus
-Cerisier tardif, Prunus serotina Erth., Rosacées
+Pruche de l'ouest, Tsuga heterophylla Sarg., Pinacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_essences_forestières_européennes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales essences introduites</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Feuillus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cerisier tardif, Prunus serotina Erth., Rosacées
 Chêne rouge d'Amérique, Quercus rubra L., Fagacées
 Chêne des marais, Quercus palustris Münchh., Fagacées
 Chêne écarlate, Quercus coccinea Münchh., Fagacées
@@ -652,9 +742,43 @@
 Peuplier hybride interaméricain, Populus × generosa, Salicacées
 Robinier faux-acacia, Robinia pseudacacia L., Fabacées
 Tulipier de Virginie, Liriodendron tulipifera L., Magnoliacées
-Diverses espèces d’Eucalyptus (Myrtacées), comme Eucalyptus globulus, Eucalyptus gunnii, Eucalyptus dalrympleana, Eucalyptus gundal, Eucalyptus camaldulensis, etc.
-Monocotylédones
-Bambou sp.
+Diverses espèces d’Eucalyptus (Myrtacées), comme Eucalyptus globulus, Eucalyptus gunnii, Eucalyptus dalrympleana, Eucalyptus gundal, Eucalyptus camaldulensis, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_essences_forestières_européennes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_essences_foresti%C3%A8res_europ%C3%A9ennes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales essences introduites</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bambou sp.
 Palmier sp.</t>
         </is>
       </c>
